--- a/data_creation/Project_plan.xlsx
+++ b/data_creation/Project_plan.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm.alexander.farquh\DSMP\ds_masters_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farqu\yolov5\data_creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2376CD1-8627-4107-BDE6-1F5D0A68496B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18540" yWindow="0" windowWidth="10260" windowHeight="15600" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18540" yWindow="0" windowWidth="10260" windowHeight="15600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Submission plan updated" sheetId="5" r:id="rId1"/>
     <sheet name="Step 1 Characterisation details" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="7" r:id="rId3"/>
-    <sheet name="Submission plan" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
-    <sheet name="Risk assessment" sheetId="3" r:id="rId6"/>
+    <sheet name="Yolo repos" sheetId="7" r:id="rId3"/>
+    <sheet name="Evaluation" sheetId="8" r:id="rId4"/>
+    <sheet name="Submission plan" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="Risk assessment" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="211">
   <si>
     <t>Term dates:</t>
   </si>
@@ -712,33 +712,72 @@
     <t>5.3 Including impurities (square) same in size</t>
   </si>
   <si>
-    <t>To do:</t>
-  </si>
-  <si>
-    <t>Get gpu on vm</t>
-  </si>
-  <si>
     <t>train baseline</t>
   </si>
   <si>
-    <t>train 3 models</t>
-  </si>
-  <si>
     <t>tune test new HPs</t>
   </si>
   <si>
-    <t>test no. epochs/freeze</t>
-  </si>
-  <si>
     <t>evaluate on each test set</t>
+  </si>
+  <si>
+    <t>200 epochs</t>
+  </si>
+  <si>
+    <t>batch 32</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>train 3 models on the 3 datasets (using above selected params and hps)</t>
+  </si>
+  <si>
+    <t>change freeze</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>evaluate find best selection</t>
+  </si>
+  <si>
+    <t>Test diff data</t>
+  </si>
+  <si>
+    <t>for standard dataset test nano,small,medium</t>
+  </si>
+  <si>
+    <t>for standard dataset test yolov8 nano,small?</t>
+  </si>
+  <si>
+    <t>evluate time to predict and accuracy</t>
+  </si>
+  <si>
+    <t>Test speed diff models</t>
+  </si>
+  <si>
+    <t>Distance between true and predicted centre point</t>
+  </si>
+  <si>
+    <t>RMSE (in pixels):</t>
+  </si>
+  <si>
+    <t>% particles detected</t>
+  </si>
+  <si>
+    <t>TP /FP/FN rate</t>
+  </si>
+  <si>
+    <t>% particles detected with dist mismatch within a threshold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1416,27 +1455,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1464,8 +1482,29 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1745,59 +1784,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9854EB0-46C4-42A9-8603-CECA903B0BE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.90625" customWidth="1"/>
-    <col min="2" max="3" width="61.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="3" width="61.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="55"/>
       <c r="B7" s="56" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="56"/>
     </row>
-    <row r="8" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>119</v>
       </c>
@@ -1808,13 +1847,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="91"/>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="25.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="84"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="92" t="s">
+    <row r="11" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="85" t="s">
         <v>100</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1824,8 +1863,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="92" t="s">
+    <row r="12" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="85" t="s">
         <v>100</v>
       </c>
       <c r="B12" s="32" t="s">
@@ -1835,8 +1874,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="8" customFormat="1" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="92" t="s">
+    <row r="13" spans="1:3" s="8" customFormat="1" ht="33.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="85" t="s">
         <v>100</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1846,15 +1885,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="93"/>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="25.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="86"/>
       <c r="B14" s="3"/>
       <c r="C14" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="92" t="s">
+    <row r="15" spans="1:3" ht="47.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="85" t="s">
         <v>100</v>
       </c>
       <c r="B15" s="32" t="s">
@@ -1864,8 +1903,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="92" t="s">
+    <row r="16" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="85" t="s">
         <v>99</v>
       </c>
       <c r="B16" s="37" t="s">
@@ -1875,8 +1914,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="92" t="s">
+    <row r="17" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="85" t="s">
         <v>99</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1886,8 +1925,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="92" t="s">
+    <row r="18" spans="1:3" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="85" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1897,8 +1936,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="92" t="s">
+    <row r="19" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="85" t="s">
         <v>103</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1908,8 +1947,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="92" t="s">
+    <row r="20" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="85" t="s">
         <v>103</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1919,29 +1958,29 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="92"/>
+    <row r="21" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="85"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="100" t="s">
+    <row r="22" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="93" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="100" t="s">
+    <row r="23" spans="1:3" ht="41.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:3" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="93" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:3" s="8" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="92"/>
+    <row r="26" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:3" s="8" customFormat="1" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:3" s="4" customFormat="1" ht="25.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="85"/>
       <c r="B30" s="6" t="s">
         <v>16</v>
       </c>
@@ -1949,8 +1988,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="92"/>
+    <row r="31" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="85"/>
       <c r="B31" s="32" t="s">
         <v>18</v>
       </c>
@@ -1958,8 +1997,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="8" customFormat="1" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="92"/>
+    <row r="32" spans="1:3" s="8" customFormat="1" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="85"/>
       <c r="B32" s="42" t="s">
         <v>23</v>
       </c>
@@ -1967,8 +2006,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="92"/>
+    <row r="33" spans="1:3" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="85"/>
       <c r="B33" s="6" t="s">
         <v>26</v>
       </c>
@@ -1976,8 +2015,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A34" s="92"/>
+    <row r="34" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="85"/>
       <c r="B34" s="6" t="s">
         <v>25</v>
       </c>
@@ -1985,8 +2024,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="92"/>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="85"/>
       <c r="B35" s="6" t="s">
         <v>22</v>
       </c>
@@ -1994,7 +2033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="18"/>
       <c r="B36" s="9" t="s">
         <v>24</v>
@@ -2003,13 +2042,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="94"/>
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="87"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A38" s="95"/>
+    <row r="38" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="88"/>
       <c r="B38" s="6" t="s">
         <v>27</v>
       </c>
@@ -2017,8 +2056,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A39" s="95"/>
+    <row r="39" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="88"/>
       <c r="B39" s="6" t="s">
         <v>79</v>
       </c>
@@ -2026,8 +2065,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="96"/>
+    <row r="40" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="89"/>
       <c r="B40" s="9" t="s">
         <v>28</v>
       </c>
@@ -2035,8 +2074,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="97"/>
+    <row r="41" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="90"/>
       <c r="B41" s="49"/>
       <c r="C41" s="49">
         <v>80</v>
@@ -2049,22 +2088,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0138390C-8272-4D53-AC07-23707C869875}">
-  <dimension ref="B5:W31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="37.90625" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="8" max="8" width="31.26953125" customWidth="1"/>
+    <col min="8" max="8" width="31.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>105</v>
       </c>
@@ -2087,7 +2126,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>106</v>
       </c>
@@ -2128,7 +2167,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>107</v>
       </c>
@@ -2136,7 +2175,7 @@
         <f>D6/50</f>
         <v>8.32</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="91" t="s">
         <v>108</v>
       </c>
       <c r="H7" t="s">
@@ -2151,7 +2190,7 @@
       <c r="K7" t="s">
         <v>152</v>
       </c>
-      <c r="L7" s="99">
+      <c r="L7" s="92">
         <v>0.02</v>
       </c>
       <c r="M7">
@@ -2167,21 +2206,21 @@
       <c r="P7" t="s">
         <v>116</v>
       </c>
-      <c r="Q7" s="99" t="s">
+      <c r="Q7" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="R7" s="99" t="s">
+      <c r="R7" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="S7" s="99" t="s">
+      <c r="S7" s="92" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="99">
+      <c r="D8" s="92">
         <v>0.1</v>
       </c>
       <c r="F8" t="s">
@@ -2199,7 +2238,7 @@
       <c r="K8" t="s">
         <v>152</v>
       </c>
-      <c r="L8" s="99">
+      <c r="L8" s="92">
         <v>0.1</v>
       </c>
       <c r="M8">
@@ -2215,17 +2254,17 @@
       <c r="P8" t="s">
         <v>116</v>
       </c>
-      <c r="Q8" s="99" t="s">
+      <c r="Q8" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="R8" s="99" t="s">
+      <c r="R8" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="S8" s="99" t="s">
+      <c r="S8" s="92" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>114</v>
       </c>
@@ -2245,11 +2284,11 @@
       <c r="K9" t="s">
         <v>152</v>
       </c>
-      <c r="L9" s="99">
+      <c r="L9" s="92">
         <v>0.02</v>
       </c>
       <c r="M9">
-        <f>FLOOR(I9/50, 1)</f>
+        <f t="shared" ref="M9:M14" si="1">FLOOR(I9/50, 1)</f>
         <v>12</v>
       </c>
       <c r="N9">
@@ -2261,17 +2300,17 @@
       <c r="P9" t="s">
         <v>116</v>
       </c>
-      <c r="Q9" s="99" t="s">
+      <c r="Q9" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="R9" s="99" t="s">
+      <c r="R9" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="S9" s="99" t="s">
+      <c r="S9" s="92" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>115</v>
       </c>
@@ -2290,11 +2329,11 @@
       <c r="K10" t="s">
         <v>152</v>
       </c>
-      <c r="L10" s="99">
+      <c r="L10" s="92">
         <v>0.02</v>
       </c>
       <c r="M10">
-        <f>FLOOR(I10/50, 1)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="N10">
@@ -2306,17 +2345,17 @@
       <c r="P10" t="s">
         <v>116</v>
       </c>
-      <c r="Q10" s="99" t="s">
+      <c r="Q10" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="R10" s="99" t="s">
+      <c r="R10" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="S10" s="99" t="s">
+      <c r="S10" s="92" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
         <v>137</v>
       </c>
@@ -2329,11 +2368,11 @@
       <c r="K11" t="s">
         <v>152</v>
       </c>
-      <c r="L11" s="99">
+      <c r="L11" s="92">
         <v>0.02</v>
       </c>
       <c r="M11">
-        <f>FLOOR(I11/50, 1)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="N11">
@@ -2345,17 +2384,17 @@
       <c r="P11" t="s">
         <v>116</v>
       </c>
-      <c r="Q11" s="99" t="s">
+      <c r="Q11" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="R11" s="99" t="s">
+      <c r="R11" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="S11" s="99" t="s">
+      <c r="S11" s="92" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>141</v>
       </c>
@@ -2368,11 +2407,11 @@
       <c r="K12" t="s">
         <v>152</v>
       </c>
-      <c r="L12" s="99">
+      <c r="L12" s="92">
         <v>0.02</v>
       </c>
       <c r="M12">
-        <f>FLOOR(I12/50, 1)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="N12">
@@ -2384,7 +2423,7 @@
       <c r="P12" t="s">
         <v>143</v>
       </c>
-      <c r="Q12" s="99">
+      <c r="Q12" s="92">
         <v>0.01</v>
       </c>
       <c r="R12">
@@ -2394,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>140</v>
       </c>
@@ -2407,11 +2446,11 @@
       <c r="K13" t="s">
         <v>152</v>
       </c>
-      <c r="L13" s="99">
+      <c r="L13" s="92">
         <v>0.02</v>
       </c>
       <c r="M13">
-        <f>FLOOR(I13/50, 1)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="N13">
@@ -2423,7 +2462,7 @@
       <c r="P13" t="s">
         <v>143</v>
       </c>
-      <c r="Q13" s="99">
+      <c r="Q13" s="92">
         <v>0.01</v>
       </c>
       <c r="R13">
@@ -2433,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
         <v>190</v>
       </c>
@@ -2446,11 +2485,11 @@
       <c r="K14" t="s">
         <v>152</v>
       </c>
-      <c r="L14" s="99">
+      <c r="L14" s="92">
         <v>0.02</v>
       </c>
       <c r="M14">
-        <f>FLOOR(I14/50, 1)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="N14">
@@ -2462,7 +2501,7 @@
       <c r="P14" t="s">
         <v>156</v>
       </c>
-      <c r="Q14" s="102">
+      <c r="Q14" s="95">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="R14">
@@ -2472,12 +2511,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
       <c r="P16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>124</v>
       </c>
@@ -2518,7 +2557,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>125</v>
       </c>
@@ -2543,23 +2582,23 @@
       <c r="N18">
         <v>2</v>
       </c>
-      <c r="O18" s="101" t="s">
+      <c r="O18" s="94" t="s">
         <v>157</v>
       </c>
       <c r="P18" t="s">
         <v>116</v>
       </c>
-      <c r="Q18" s="99" t="s">
+      <c r="Q18" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="R18" s="99" t="s">
+      <c r="R18" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="S18" s="99" t="s">
+      <c r="S18" s="92" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>126</v>
       </c>
@@ -2585,23 +2624,23 @@
       <c r="N19">
         <v>4</v>
       </c>
-      <c r="O19" s="101" t="s">
+      <c r="O19" s="94" t="s">
         <v>157</v>
       </c>
       <c r="P19" t="s">
         <v>116</v>
       </c>
-      <c r="Q19" s="99" t="s">
+      <c r="Q19" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="R19" s="99" t="s">
+      <c r="R19" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="S19" s="99" t="s">
+      <c r="S19" s="92" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="H20" t="s">
         <v>141</v>
       </c>
@@ -2623,13 +2662,13 @@
       <c r="N20">
         <v>2</v>
       </c>
-      <c r="O20" s="101" t="s">
+      <c r="O20" s="94" t="s">
         <v>157</v>
       </c>
       <c r="P20" t="s">
         <v>143</v>
       </c>
-      <c r="Q20" s="99" t="s">
+      <c r="Q20" s="92" t="s">
         <v>189</v>
       </c>
       <c r="R20">
@@ -2641,7 +2680,7 @@
       <c r="T20" t="s">
         <v>156</v>
       </c>
-      <c r="U20" s="102">
+      <c r="U20" s="95">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="V20">
@@ -2651,56 +2690,128 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="O21" s="101"/>
-      <c r="Q21" s="99"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="O22" s="101"/>
-      <c r="Q22" s="102"/>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="C25" t="s">
-        <v>191</v>
-      </c>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="O21" s="94"/>
+      <c r="Q21" s="92"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="O22" s="94"/>
+      <c r="Q22" s="95"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="C29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="C31" t="s">
-        <v>197</v>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2711,21 +2822,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFD3531-9ED2-40E7-8A5D-BDDA6ECB5FAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -2733,7 +2844,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>162</v>
       </c>
@@ -2741,7 +2852,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>164</v>
       </c>
@@ -2749,7 +2860,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>166</v>
       </c>
@@ -2757,72 +2868,72 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C19" s="103" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="96" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>180</v>
       </c>
@@ -2830,12 +2941,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>181</v>
       </c>
@@ -2843,17 +2954,17 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>188</v>
       </c>
@@ -2865,25 +2976,63 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.90625" customWidth="1"/>
-    <col min="2" max="2" width="32.81640625" customWidth="1"/>
-    <col min="3" max="4" width="61.1796875" customWidth="1"/>
-    <col min="5" max="8" width="14.81640625" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" customWidth="1"/>
-    <col min="10" max="15" width="14.81640625" customWidth="1"/>
-    <col min="16" max="16" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="3" max="4" width="61.21875" customWidth="1"/>
+    <col min="5" max="8" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="10" max="15" width="14.77734375" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2894,7 +3043,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -2905,7 +3054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -2916,18 +3065,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:15" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54"/>
       <c r="B7" s="55"/>
       <c r="C7" s="56" t="s">
@@ -2956,7 +3105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="3"/>
       <c r="C8" s="12" t="s">
@@ -3005,7 +3154,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
@@ -3050,8 +3199,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" ht="25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="87" t="s">
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="25.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="100" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3"/>
@@ -3069,8 +3218,8 @@
       <c r="N10" s="3"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="1:15" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="85"/>
+    <row r="11" spans="1:15" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="98"/>
       <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
@@ -3094,8 +3243,8 @@
       <c r="N11" s="10"/>
       <c r="O11" s="24"/>
     </row>
-    <row r="12" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="85"/>
+    <row r="12" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="98"/>
       <c r="B12" s="31"/>
       <c r="C12" s="32" t="s">
         <v>33</v>
@@ -3117,8 +3266,8 @@
       <c r="N12" s="31"/>
       <c r="O12" s="34"/>
     </row>
-    <row r="13" spans="1:15" s="8" customFormat="1" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="86"/>
+    <row r="13" spans="1:15" s="8" customFormat="1" ht="33.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="99"/>
       <c r="B13" s="18" t="s">
         <v>20</v>
       </c>
@@ -3141,8 +3290,8 @@
       <c r="N13" s="18"/>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" ht="25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="84" t="s">
+    <row r="14" spans="1:15" s="4" customFormat="1" ht="25.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="97" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="3"/>
@@ -3160,8 +3309,8 @@
       <c r="N14" s="3"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="85"/>
+    <row r="15" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="98"/>
       <c r="B15" s="32" t="s">
         <v>34</v>
       </c>
@@ -3185,8 +3334,8 @@
       <c r="N15" s="31"/>
       <c r="O15" s="34"/>
     </row>
-    <row r="16" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="85"/>
+    <row r="16" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="98"/>
       <c r="B16" s="37" t="s">
         <v>12</v>
       </c>
@@ -3210,8 +3359,8 @@
       <c r="N16" s="40"/>
       <c r="O16" s="41"/>
     </row>
-    <row r="17" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="85"/>
+    <row r="17" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="98"/>
       <c r="B17" s="10"/>
       <c r="C17" s="6" t="s">
         <v>17</v>
@@ -3235,8 +3384,8 @@
       <c r="N17" s="10"/>
       <c r="O17" s="24"/>
     </row>
-    <row r="18" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="85"/>
+    <row r="18" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="98"/>
       <c r="B18" s="10"/>
       <c r="C18" s="6" t="s">
         <v>16</v>
@@ -3258,8 +3407,8 @@
       <c r="N18" s="10"/>
       <c r="O18" s="24"/>
     </row>
-    <row r="19" spans="1:15" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="85"/>
+    <row r="19" spans="1:15" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="98"/>
       <c r="B19" s="31"/>
       <c r="C19" s="32" t="s">
         <v>18</v>
@@ -3281,8 +3430,8 @@
       <c r="N19" s="31"/>
       <c r="O19" s="34"/>
     </row>
-    <row r="20" spans="1:15" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="85"/>
+    <row r="20" spans="1:15" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="98"/>
       <c r="B20" s="42" t="s">
         <v>13</v>
       </c>
@@ -3304,8 +3453,8 @@
       <c r="N20" s="44"/>
       <c r="O20" s="46"/>
     </row>
-    <row r="21" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="85"/>
+    <row r="21" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="98"/>
       <c r="B21" s="6" t="s">
         <v>14</v>
       </c>
@@ -3329,8 +3478,8 @@
       <c r="N21" s="10"/>
       <c r="O21" s="24"/>
     </row>
-    <row r="22" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="85"/>
+    <row r="22" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="98"/>
       <c r="B22" s="10"/>
       <c r="C22" s="6" t="s">
         <v>25</v>
@@ -3352,8 +3501,8 @@
       <c r="N22" s="10"/>
       <c r="O22" s="24"/>
     </row>
-    <row r="23" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="85"/>
+    <row r="23" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="98"/>
       <c r="B23" s="10"/>
       <c r="C23" s="6" t="s">
         <v>22</v>
@@ -3373,8 +3522,8 @@
       <c r="N23" s="10"/>
       <c r="O23" s="24"/>
     </row>
-    <row r="24" spans="1:15" s="8" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="86"/>
+    <row r="24" spans="1:15" s="8" customFormat="1" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="99"/>
       <c r="B24" s="18"/>
       <c r="C24" s="9" t="s">
         <v>24</v>
@@ -3398,8 +3547,8 @@
       </c>
       <c r="O24" s="19"/>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" ht="25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="88" t="s">
+    <row r="25" spans="1:15" s="4" customFormat="1" ht="25.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="101" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="3"/>
@@ -3417,8 +3566,8 @@
       <c r="N25" s="28"/>
       <c r="O25" s="29"/>
     </row>
-    <row r="26" spans="1:15" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="89"/>
+    <row r="26" spans="1:15" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="102"/>
       <c r="B26" s="10"/>
       <c r="C26" s="6" t="s">
         <v>27</v>
@@ -3437,8 +3586,8 @@
       <c r="M26" s="30"/>
       <c r="O26" s="24"/>
     </row>
-    <row r="27" spans="1:15" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="89"/>
+    <row r="27" spans="1:15" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="102"/>
       <c r="B27" s="10"/>
       <c r="C27" s="6" t="s">
         <v>79</v>
@@ -3458,8 +3607,8 @@
       <c r="N27" s="30"/>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" s="8" customFormat="1" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="90"/>
+    <row r="28" spans="1:15" s="8" customFormat="1" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="103"/>
       <c r="B28" s="18"/>
       <c r="C28" s="9" t="s">
         <v>28</v>
@@ -3481,7 +3630,7 @@
       </c>
       <c r="O28" s="19"/>
     </row>
-    <row r="29" spans="1:15" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="47" t="s">
         <v>46</v>
       </c>
@@ -3506,13 +3655,13 @@
       <c r="N29" s="48"/>
       <c r="O29" s="51"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3529,37 +3678,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>89</v>
       </c>
@@ -3567,32 +3716,32 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>94</v>
       </c>
@@ -3602,25 +3751,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.1796875" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="18.08984375" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:10" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:10" ht="18.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="74" t="s">
         <v>52</v>
       </c>
@@ -3637,7 +3786,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="68" t="s">
         <v>69</v>
       </c>
@@ -3654,7 +3803,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="63" t="s">
         <v>82</v>
       </c>
@@ -3671,7 +3820,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="63" t="s">
         <v>70</v>
       </c>
@@ -3692,7 +3841,7 @@
         <v>47.846889952153113</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="73" t="s">
         <v>71</v>
       </c>
@@ -3709,7 +3858,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="78" t="s">
         <v>75</v>
       </c>
@@ -3726,7 +3875,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="78" t="s">
         <v>74</v>
       </c>
@@ -3743,84 +3892,84 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="77"/>
       <c r="C10" s="77"/>
       <c r="D10" s="77"/>
       <c r="E10" s="77"/>
       <c r="F10" s="77"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="62"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
       <c r="F11" s="62"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
       <c r="F14" s="62"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="62"/>
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="62"/>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
       <c r="F16" s="62"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
       <c r="F17" s="62"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
       <c r="D18" s="62"/>
       <c r="E18" s="62"/>
       <c r="F18" s="62"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="62"/>
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
       <c r="F19" s="62"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="62"/>
       <c r="C20" s="62"/>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
       <c r="F20" s="62"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
       <c r="D21" s="62"/>
